--- a/docs/Extension-UKCore-NominatedPharmacy-1-0-0.xlsx
+++ b/docs/Extension-UKCore-NominatedPharmacy-1-0-0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>Path</t>
   </si>
@@ -209,6 +209,10 @@
     <t>Extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -235,6 +239,10 @@
   </si>
   <si>
     <t>The patient's nominated pharmacy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
 </sst>
 </file>
@@ -836,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>50</v>
@@ -867,16 +875,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -884,7 +892,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -941,12 +949,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -969,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1026,7 +1034,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1038,10 +1046,10 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Extension-UKCore-NominatedPharmacy-1-0-0.xlsx
+++ b/docs/Extension-UKCore-NominatedPharmacy-1-0-0.xlsx
@@ -231,7 +231,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Organization-1-0-0)
 </t>
   </si>
   <si>
